--- a/데이터통합/일별 기록.xlsx
+++ b/데이터통합/일별 기록.xlsx
@@ -1043,9 +1043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1559,148 +1561,158 @@
       <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5">
+        <v>42491</v>
+      </c>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5">
+        <v>42492</v>
+      </c>
       <c r="B64" s="3"/>
+      <c r="C64" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>42491</v>
+        <v>42493</v>
       </c>
       <c r="B65" s="3"/>
+      <c r="C65" s="4">
+        <v>57</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>42492</v>
+        <v>42494</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="4">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="4">
-        <v>57</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <v>42494</v>
+        <v>42496</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="C68" s="4">
-        <v>67</v>
-      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>42495</v>
+        <v>42497</v>
       </c>
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>42496</v>
+        <v>42498</v>
       </c>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>42497</v>
+        <v>42499</v>
       </c>
       <c r="B71" s="3"/>
+      <c r="C71" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>42498</v>
+        <v>42500</v>
       </c>
       <c r="B72" s="3"/>
+      <c r="C72" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>42499</v>
+        <v>42501</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="4">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>42501</v>
+        <v>42503</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>42502</v>
+        <v>42504</v>
       </c>
       <c r="B76" s="3"/>
-      <c r="C76" s="4">
-        <v>63</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>42503</v>
+        <v>42505</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="4">
-        <v>61</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>42504</v>
+        <v>42506</v>
       </c>
       <c r="B78" s="3"/>
+      <c r="C78" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>42505</v>
+        <v>42507</v>
       </c>
       <c r="B79" s="3"/>
+      <c r="C79" s="4">
+        <v>77</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>42506</v>
+        <v>42508</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>42507</v>
+        <v>42509</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="4">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>42508</v>
+        <v>42510</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="4">
@@ -1709,508 +1721,508 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>42509</v>
+        <v>42511</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="4">
-        <v>75</v>
-      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>42510</v>
+        <v>42512</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="4">
-        <v>70</v>
-      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>42511</v>
+        <v>42513</v>
       </c>
       <c r="B85" s="3"/>
+      <c r="C85" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
-        <v>42512</v>
+        <v>42514</v>
       </c>
       <c r="B86" s="3"/>
+      <c r="C86" s="4">
+        <v>83</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="4">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="4">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>42515</v>
+        <v>42517</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>42516</v>
+        <v>42518</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="4">
-        <v>72</v>
-      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>42517</v>
+        <v>42519</v>
       </c>
       <c r="B91" s="3"/>
-      <c r="C91" s="4">
-        <v>81</v>
-      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>42518</v>
+        <v>42520</v>
       </c>
       <c r="B92" s="3"/>
+      <c r="C92" s="4">
+        <v>49</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>42519</v>
+        <v>42521</v>
       </c>
       <c r="B93" s="3"/>
+      <c r="C93" s="4">
+        <v>77</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>42520</v>
+        <v>42522</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="4">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>42521</v>
+        <v>42523</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="4">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>42522</v>
+        <v>42524</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>42523</v>
+        <v>42525</v>
       </c>
       <c r="B97" s="3"/>
-      <c r="C97" s="4">
-        <v>75</v>
-      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>42524</v>
+        <v>42526</v>
       </c>
       <c r="B98" s="3"/>
-      <c r="C98" s="4">
-        <v>65</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>42525</v>
+        <v>42527</v>
       </c>
       <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>42526</v>
+        <v>42528</v>
       </c>
       <c r="B100" s="3"/>
+      <c r="C100" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="B101" s="3"/>
+      <c r="C101" s="4">
+        <v>72</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="4">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="4">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
-        <v>42530</v>
+        <v>42532</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="4">
-        <v>73</v>
-      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>42531</v>
+        <v>42533</v>
       </c>
       <c r="B105" s="3"/>
-      <c r="C105" s="4">
-        <v>50</v>
-      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
-        <v>42532</v>
+        <v>42534</v>
       </c>
       <c r="B106" s="3"/>
+      <c r="C106" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>42533</v>
+        <v>42535</v>
       </c>
       <c r="B107" s="3"/>
+      <c r="C107" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
-        <v>42534</v>
+        <v>42536</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="4">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>42535</v>
+        <v>42537</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="4">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
-        <v>42536</v>
+        <v>42538</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="4">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
-        <v>42537</v>
+        <v>42539</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="4">
-        <v>75</v>
-      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
-        <v>42538</v>
+        <v>42540</v>
       </c>
       <c r="B112" s="3"/>
-      <c r="C112" s="4">
-        <v>59</v>
-      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
-        <v>42539</v>
+        <v>42541</v>
       </c>
       <c r="B113" s="3"/>
+      <c r="C113" s="4">
+        <v>44</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
-        <v>42540</v>
+        <v>42542</v>
       </c>
       <c r="B114" s="3"/>
+      <c r="C114" s="4">
+        <v>63</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
-        <v>42541</v>
+        <v>42543</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="4">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
-        <v>42542</v>
+        <v>42544</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
-        <v>42543</v>
+        <v>42545</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
-        <v>42544</v>
+        <v>42546</v>
       </c>
       <c r="B118" s="3"/>
-      <c r="C118" s="4">
-        <v>64</v>
-      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
-        <v>42545</v>
+        <v>42547</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="4">
-        <v>70</v>
-      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
-        <v>42546</v>
+        <v>42548</v>
       </c>
       <c r="B120" s="3"/>
+      <c r="C120" s="4">
+        <v>42</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
-        <v>42547</v>
+        <v>42549</v>
       </c>
       <c r="B121" s="3"/>
+      <c r="C121" s="4">
+        <v>58</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
-        <v>42548</v>
+        <v>42550</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="4">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
-        <v>42549</v>
+        <v>42551</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
-        <v>42550</v>
+        <v>42552</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
-        <v>42551</v>
+        <v>42553</v>
       </c>
       <c r="B125" s="3"/>
-      <c r="C125" s="4">
-        <v>57</v>
-      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
-        <v>42552</v>
+        <v>42554</v>
       </c>
       <c r="B126" s="3"/>
-      <c r="C126" s="4">
-        <v>44</v>
-      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
-        <v>42553</v>
+        <v>42555</v>
       </c>
       <c r="B127" s="3"/>
+      <c r="C127" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
-        <v>42554</v>
+        <v>42556</v>
       </c>
       <c r="B128" s="3"/>
+      <c r="C128" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
-        <v>42555</v>
+        <v>42557</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="4">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
-        <v>42556</v>
+        <v>42558</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
-        <v>42557</v>
+        <v>42559</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="4">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
-        <v>42558</v>
+        <v>42560</v>
       </c>
       <c r="B132" s="3"/>
-      <c r="C132" s="4">
-        <v>64</v>
-      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
-        <v>42559</v>
+        <v>42561</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="4">
-        <v>57</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
-        <v>42560</v>
+        <v>42562</v>
       </c>
       <c r="B134" s="3"/>
+      <c r="C134" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
-        <v>42561</v>
+        <v>42563</v>
       </c>
       <c r="B135" s="3"/>
+      <c r="C135" s="4">
+        <v>73</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
-        <v>42562</v>
+        <v>42564</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="4">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
-        <v>42563</v>
+        <v>42565</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
-        <v>42564</v>
+        <v>42566</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
-        <v>42565</v>
+        <v>42567</v>
       </c>
       <c r="B139" s="3"/>
-      <c r="C139" s="4">
-        <v>75</v>
-      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
-        <v>42566</v>
+        <v>42568</v>
       </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="4">
-        <v>77</v>
-      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
-        <v>42567</v>
+        <v>42569</v>
       </c>
       <c r="B141" s="3"/>
+      <c r="C141" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
-        <v>42568</v>
+        <v>42570</v>
       </c>
       <c r="B142" s="3"/>
+      <c r="C142" s="4">
+        <v>72</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
-        <v>42569</v>
+        <v>42571</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="4">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
-        <v>42570</v>
+        <v>42572</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="4">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
-        <v>42571</v>
+        <v>42573</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="4">
@@ -2219,343 +2231,343 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
-        <v>42572</v>
+        <v>42574</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="4">
-        <v>69</v>
-      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
-        <v>42573</v>
+        <v>42575</v>
       </c>
       <c r="B147" s="3"/>
-      <c r="C147" s="4">
-        <v>70</v>
-      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
-        <v>42574</v>
+        <v>42576</v>
       </c>
       <c r="B148" s="3"/>
+      <c r="C148" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
-        <v>42575</v>
+        <v>42577</v>
       </c>
       <c r="B149" s="3"/>
+      <c r="C149" s="4">
+        <v>62</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
-        <v>42576</v>
+        <v>42578</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="4">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
-        <v>42577</v>
+        <v>42579</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="4">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
-        <v>42578</v>
+        <v>42580</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="4">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
-        <v>42579</v>
+        <v>42583</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="4">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
-        <v>42580</v>
+        <v>42584</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
-        <v>42583</v>
+        <v>42585</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="4">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
-        <v>42584</v>
+        <v>42586</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
-        <v>42586</v>
+        <v>42590</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="4">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
-        <v>42587</v>
+        <v>42591</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="4">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
-        <v>42590</v>
+        <v>42592</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="4">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
-        <v>42591</v>
+        <v>42593</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="4">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
-        <v>42592</v>
+        <v>42594</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
-        <v>42593</v>
+        <v>42598</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
-        <v>42594</v>
+        <v>42599</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
-        <v>42598</v>
+        <v>42600</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
-        <v>42599</v>
+        <v>42601</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="4">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
-        <v>42600</v>
+        <v>42604</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
-        <v>42601</v>
+        <v>42605</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
-        <v>42604</v>
+        <v>42606</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
-        <v>42605</v>
+        <v>42607</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
-        <v>42606</v>
+        <v>42608</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
-        <v>42607</v>
+        <v>42611</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
-        <v>42608</v>
+        <v>42612</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
-        <v>42611</v>
+        <v>42613</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="4">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
-        <v>42612</v>
+        <v>42614</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
-        <v>42613</v>
+        <v>42615</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
-        <v>42614</v>
+        <v>42618</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
-        <v>42615</v>
+        <v>42619</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
-        <v>42618</v>
+        <v>42620</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
-        <v>42619</v>
+        <v>42621</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
-        <v>42620</v>
+        <v>42622</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
-        <v>42621</v>
+        <v>42625</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
-        <v>42622</v>
+        <v>42626</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
-        <v>42625</v>
+        <v>42632</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4">
@@ -2564,205 +2576,205 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
-        <v>42626</v>
+        <v>42633</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
-        <v>42632</v>
+        <v>42634</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="4">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
-        <v>42633</v>
+        <v>42635</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="4">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
-        <v>42634</v>
+        <v>42636</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="4">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
-        <v>42635</v>
+        <v>42639</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="4">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
-        <v>42636</v>
+        <v>42640</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
-        <v>42639</v>
+        <v>42641</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="4">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
-        <v>42640</v>
+        <v>42642</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
-        <v>42641</v>
+        <v>42643</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
-        <v>42642</v>
+        <v>42647</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
-        <v>42643</v>
+        <v>42648</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="4">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
-        <v>42647</v>
+        <v>42649</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="4">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
-        <v>42648</v>
+        <v>42650</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
-        <v>42649</v>
+        <v>42653</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="4">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
-        <v>42650</v>
+        <v>42654</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
-        <v>42653</v>
+        <v>42655</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="4">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
-        <v>42654</v>
+        <v>42656</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="4">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
-        <v>42655</v>
+        <v>42657</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
-        <v>42656</v>
+        <v>42660</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="4">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
-        <v>42657</v>
+        <v>42661</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
-        <v>42660</v>
+        <v>42662</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="4">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
-        <v>42661</v>
+        <v>42663</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
-        <v>42662</v>
+        <v>42664</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="4">
@@ -2771,469 +2783,451 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
-        <v>42663</v>
+        <v>42667</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="4">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
-        <v>42664</v>
+        <v>42668</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="4">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
-        <v>42667</v>
+        <v>42669</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="4">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
-        <v>42668</v>
+        <v>42670</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="4">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
-        <v>42669</v>
+        <v>42671</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
-        <v>42670</v>
+        <v>42674</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="4">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
-        <v>42671</v>
+        <v>42675</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="4">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
-        <v>42674</v>
+        <v>42676</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="4">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
-        <v>42675</v>
+        <v>42677</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="4">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
-        <v>42676</v>
+        <v>42678</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="4">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
-        <v>42678</v>
+        <v>42682</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="4">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
-        <v>42681</v>
+        <v>42683</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="4">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
-        <v>42682</v>
+        <v>42684</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="4">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
-        <v>42683</v>
+        <v>42685</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="4">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
-        <v>42684</v>
+        <v>42688</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="4">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
-        <v>42685</v>
+        <v>42689</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
-        <v>42688</v>
+        <v>42690</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="4">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
-        <v>42689</v>
+        <v>42691</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
-        <v>42690</v>
+        <v>42692</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="4">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
-        <v>42691</v>
+        <v>42695</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="4">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
-        <v>42692</v>
+        <v>42696</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="4">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
-        <v>42695</v>
+        <v>42697</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="4">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
-        <v>42696</v>
+        <v>42698</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="4">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
-        <v>42697</v>
+        <v>42699</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="4">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
-        <v>42698</v>
+        <v>42702</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="4">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
-        <v>42699</v>
+        <v>42703</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="4">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
-        <v>42702</v>
+        <v>42704</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="4">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
-        <v>42703</v>
+        <v>42705</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="4">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
-        <v>42704</v>
+        <v>42706</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="4">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="4">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
-        <v>42706</v>
+        <v>42710</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
-        <v>42709</v>
+        <v>42711</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="4">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
-        <v>42710</v>
+        <v>42712</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="4">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
-        <v>42711</v>
+        <v>42713</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
-        <v>42712</v>
+        <v>42716</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="4">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
-        <v>42713</v>
+        <v>42717</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="4">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
-        <v>42716</v>
+        <v>42718</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
-        <v>42717</v>
+        <v>42719</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="4">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="4">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
-        <v>42719</v>
+        <v>42723</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
-        <v>42720</v>
+        <v>42724</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
-        <v>42723</v>
+        <v>42725</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
-        <v>42724</v>
+        <v>42726</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="4">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
-        <v>42725</v>
+        <v>42727</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="4">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
-        <v>42726</v>
+        <v>42730</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="4">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
-        <v>42727</v>
+        <v>42731</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="4">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
-        <v>42730</v>
+        <v>42732</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
-        <v>42731</v>
+        <v>42733</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
-        <v>42732</v>
+        <v>42734</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="5">
-        <v>42733</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="5">
-        <v>42734</v>
-      </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="4">
         <v>47</v>
       </c>
     </row>
